--- a/document/게시판api설계.xlsx
+++ b/document/게시판api설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\수업\github\project-board\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01920E35-94E2-492F-8489-89695A110203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C275E07-9913-471F-A073-8542CAB2DF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{805D4031-B2B1-467E-ABAD-B21769845750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{150BB030-F946-48D3-B981-83732A1A8391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,272 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/{article-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 검색 전용 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 해시태그 검색 전용 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 데이터가 전달 될지 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pw, email, (nickname), etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 (전체)리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터: 제목, 본문, id, 글쓴이, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 본문, id, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT / PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 본문, 해시태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articleComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 (전체)리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articleComments/{article-comment-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 게시글과 관련된 댓글 단일 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articlecomments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articleComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articles/{article-id}/articleComments/{article-comment-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문, id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글의 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터: 본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/search/hashtag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +309,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,15 +356,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,13 +807,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597E97B2-6776-4FEB-88D1-83E974BC6B2C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0CCA9C-DB04-4579-BB58-C4198D692B8C}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.25" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="15"/>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A13:A26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
